--- a/Flower.xlsx
+++ b/Flower.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Blinkit Pid</t>
   </si>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t>NameforCheck</t>
+  </si>
+  <si>
+    <t>ftjhcgjgj</t>
   </si>
 </sst>
 </file>
@@ -519,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -779,4 +783,24 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Flower.xlsx
+++ b/Flower.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Blinkit Pid</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>ftjhcgjgj</t>
+  </si>
+  <si>
+    <t>dafffd</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -795,9 +798,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Flower.xlsx
+++ b/Flower.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Blinkit Pid</t>
   </si>
@@ -116,12 +116,15 @@
   </si>
   <si>
     <t>dafffd</t>
+  </si>
+  <si>
+    <t>cxvhxtfhfgxfhg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -236,6 +239,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -282,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +325,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +360,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,7 +778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -777,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -789,21 +802,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
